--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N2">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O2">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P2">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q2">
-        <v>0.7017765320213333</v>
+        <v>0.7946716340951112</v>
       </c>
       <c r="R2">
-        <v>6.315988788192</v>
+        <v>7.152044706856</v>
       </c>
       <c r="S2">
-        <v>0.02116506790023655</v>
+        <v>0.02982296291498153</v>
       </c>
       <c r="T2">
-        <v>0.02116506790023656</v>
+        <v>0.02982296291498153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.374949</v>
       </c>
       <c r="O3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q3">
-        <v>3.244737103620333</v>
+        <v>4.375152035058778</v>
       </c>
       <c r="R3">
-        <v>29.202633932583</v>
+        <v>39.376368315529</v>
       </c>
       <c r="S3">
-        <v>0.0978589023470702</v>
+        <v>0.164193600590187</v>
       </c>
       <c r="T3">
-        <v>0.09785890234707022</v>
+        <v>0.164193600590187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N4">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O4">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P4">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q4">
-        <v>12.74346615885967</v>
+        <v>10.47761134045189</v>
       </c>
       <c r="R4">
-        <v>114.691195429737</v>
+        <v>94.29850206406701</v>
       </c>
       <c r="S4">
-        <v>0.3843336364636833</v>
+        <v>0.3932107313729634</v>
       </c>
       <c r="T4">
-        <v>0.3843336364636834</v>
+        <v>0.3932107313729634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N5">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O5">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P5">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q5">
-        <v>0.4023183713528889</v>
+        <v>0.3378664747262223</v>
       </c>
       <c r="R5">
-        <v>3.620865342176001</v>
+        <v>3.040798272536001</v>
       </c>
       <c r="S5">
-        <v>0.01213362838262826</v>
+        <v>0.01267967662825837</v>
       </c>
       <c r="T5">
-        <v>0.01213362838262826</v>
+        <v>0.01267967662825837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.374949</v>
       </c>
       <c r="O6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q6">
         <v>1.860161016266556</v>
@@ -821,10 +821,10 @@
         <v>16.741449146399</v>
       </c>
       <c r="S6">
-        <v>0.05610109831010688</v>
+        <v>0.06980935347866235</v>
       </c>
       <c r="T6">
-        <v>0.05610109831010689</v>
+        <v>0.06980935347866234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N7">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O7">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P7">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q7">
-        <v>7.305645481840112</v>
+        <v>4.454712431230778</v>
       </c>
       <c r="R7">
-        <v>65.75080933656101</v>
+        <v>40.09241188107701</v>
       </c>
       <c r="S7">
-        <v>0.2203329345209594</v>
+        <v>0.1671793957824875</v>
       </c>
       <c r="T7">
-        <v>0.2203329345209594</v>
+        <v>0.1671793957824875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H8">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I8">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J8">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N8">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O8">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P8">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q8">
-        <v>0.2441696182471112</v>
+        <v>0.184008981104</v>
       </c>
       <c r="R8">
-        <v>2.197526564224001</v>
+        <v>1.656080829936</v>
       </c>
       <c r="S8">
-        <v>0.007363977439499</v>
+        <v>0.00690561080078936</v>
       </c>
       <c r="T8">
-        <v>0.007363977439499</v>
+        <v>0.00690561080078936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H9">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I9">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J9">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.374949</v>
       </c>
       <c r="O9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q9">
-        <v>1.128943736008445</v>
+        <v>1.013081672486</v>
       </c>
       <c r="R9">
-        <v>10.160493624076</v>
+        <v>9.117735052374</v>
       </c>
       <c r="S9">
-        <v>0.03404811893515856</v>
+        <v>0.03801959935665875</v>
       </c>
       <c r="T9">
-        <v>0.03404811893515856</v>
+        <v>0.03801959935665874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H10">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I10">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J10">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N10">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O10">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P10">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q10">
-        <v>4.43384343188489</v>
+        <v>2.426127351778</v>
       </c>
       <c r="R10">
-        <v>39.90459088696401</v>
+        <v>21.835146166002</v>
       </c>
       <c r="S10">
-        <v>0.1337214811452385</v>
+        <v>0.09104931261512454</v>
       </c>
       <c r="T10">
-        <v>0.1337214811452385</v>
+        <v>0.09104931261512454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H11">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N11">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O11">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P11">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q11">
-        <v>0.04592625381333334</v>
+        <v>0.03671363386311111</v>
       </c>
       <c r="R11">
-        <v>0.41333628432</v>
+        <v>0.330422704768</v>
       </c>
       <c r="S11">
-        <v>0.001385102288278214</v>
+        <v>0.001377813544861886</v>
       </c>
       <c r="T11">
-        <v>0.001385102288278214</v>
+        <v>0.001377813544861886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H12">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.374949</v>
       </c>
       <c r="O12">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P12">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q12">
-        <v>0.2123448319783333</v>
+        <v>0.2021309469457778</v>
       </c>
       <c r="R12">
-        <v>1.911103487805</v>
+        <v>1.819178522512</v>
       </c>
       <c r="S12">
-        <v>0.006404165118119289</v>
+        <v>0.007585703926123208</v>
       </c>
       <c r="T12">
-        <v>0.00640416511811929</v>
+        <v>0.007585703926123207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H13">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N13">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O13">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P13">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q13">
-        <v>0.8339686988216667</v>
+        <v>0.4840630645528889</v>
       </c>
       <c r="R13">
-        <v>7.505718289395</v>
+        <v>4.356567580976001</v>
       </c>
       <c r="S13">
-        <v>0.02515188714902186</v>
+        <v>0.01816623898890205</v>
       </c>
       <c r="T13">
-        <v>0.02515188714902187</v>
+        <v>0.01816623898890206</v>
       </c>
     </row>
   </sheetData>
